--- a/DND/NPC Cards/Monstrosities.xlsx
+++ b/DND/NPC Cards/Monstrosities.xlsx
@@ -377,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -624,11 +624,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -636,35 +771,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -674,95 +785,173 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,177 +1270,188 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="67.5" x14ac:dyDescent="1.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="24"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="13" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="26"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="28"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="14" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="14" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="30"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="15" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="15" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="32"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="34"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="34"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B2:M2"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:M8"/>
@@ -1263,17 +1463,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -1285,231 +1474,243 @@
   <dimension ref="B1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="67.5" x14ac:dyDescent="1.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="49">
         <v>162</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="52">
         <v>19</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="24"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="69">
         <v>0</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="39">
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="71"/>
+      <c r="C5" s="72">
         <v>18</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="39">
+      <c r="D5" s="73"/>
+      <c r="E5" s="72">
         <v>9</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="39">
+      <c r="F5" s="73"/>
+      <c r="G5" s="72">
         <v>15</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="39">
+      <c r="H5" s="73"/>
+      <c r="I5" s="72">
         <v>2</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="39">
+      <c r="J5" s="73"/>
+      <c r="K5" s="72">
         <v>11</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="42">
+      <c r="L5" s="73"/>
+      <c r="M5" s="74">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="44" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="44" t="s">
+      <c r="J6" s="61"/>
+      <c r="K6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="30"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="48" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="49" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="49" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="32"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="34"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="34"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="C9:M9"/>
     <mergeCell ref="C10:M10"/>
@@ -1522,16 +1723,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DND/NPC Cards/Monstrosities.xlsx
+++ b/DND/NPC Cards/Monstrosities.xlsx
@@ -813,6 +813,81 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -821,137 +896,62 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,188 +1270,177 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="67.5" x14ac:dyDescent="1.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="32" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="32" t="s">
         <v>9</v>
       </c>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="41"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="42"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="42"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="42"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="42"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B2:M2"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:M8"/>
@@ -1463,6 +1452,17 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -1474,7 +1474,7 @@
   <dimension ref="B1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,231 +1486,221 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="67.5" x14ac:dyDescent="1.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="58">
         <v>162</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="52">
-        <v>19</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="60">
+        <v>17</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="59"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="28">
         <v>0</v>
       </c>
-      <c r="L4" s="68" t="s">
+      <c r="L4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="70" t="s">
+      <c r="M4" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72">
+      <c r="B5" s="55"/>
+      <c r="C5" s="30">
         <v>18</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="72">
+      <c r="D5" s="57"/>
+      <c r="E5" s="30">
         <v>9</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="72">
+      <c r="F5" s="57"/>
+      <c r="G5" s="30">
         <v>15</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="72">
+      <c r="H5" s="57"/>
+      <c r="I5" s="30">
         <v>2</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="72">
+      <c r="J5" s="57"/>
+      <c r="K5" s="30">
         <v>11</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74">
+      <c r="L5" s="57"/>
+      <c r="M5" s="31">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="62" t="s">
+      <c r="G6" s="69"/>
+      <c r="H6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="65"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="47"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
     </row>
     <row r="9" spans="2:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="C9:M9"/>
     <mergeCell ref="C10:M10"/>
@@ -1723,6 +1713,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
